--- a/lesson_4/stock_portfolio_backtest.xlsx
+++ b/lesson_4/stock_portfolio_backtest.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Weber\Desktop\NTU python324\lesson_4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Weber\Documents\GitHub\2020-Python-Excel-NTU\lesson_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853899C7-FAF4-4344-A670-B86F5CB0E2CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C3E0CE5-4B83-4B08-8E99-3F847761BB17}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="830" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{8C0CDC9C-0737-422E-AE34-0C7E2F4F4F87}"/>
+    <workbookView xWindow="1770" yWindow="-110" windowWidth="22780" windowHeight="14660" firstSheet="1" activeTab="6" xr2:uid="{8C0CDC9C-0737-422E-AE34-0C7E2F4F4F87}"/>
   </bookViews>
   <sheets>
     <sheet name="Portfolio" sheetId="9" r:id="rId1"/>
@@ -635,7 +635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AD7EA60-E1D8-4425-B833-937AD2941D79}">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -1582,12 +1582,66 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A22" s="18"/>
-      <c r="B22" s="19"/>
+      <c r="A22" s="18">
+        <v>43867</v>
+      </c>
+      <c r="B22" s="19">
+        <v>382</v>
+      </c>
+      <c r="C22" s="11">
+        <f t="array" ref="C22">SUM(B18:B22*weight5d)/SUM(weight5d)</f>
+        <v>385.13333333333333</v>
+      </c>
+      <c r="D22" s="11">
+        <f t="array" ref="D22">SUM(B13:B22*weight10d)/SUM(weight10d)</f>
+        <v>397.76363636363635</v>
+      </c>
+      <c r="E22" s="11">
+        <v>0</v>
+      </c>
+      <c r="F22" s="11">
+        <v>0</v>
+      </c>
+      <c r="G22" s="11">
+        <v>0</v>
+      </c>
+      <c r="H22" s="11">
+        <v>963000</v>
+      </c>
+      <c r="I22" s="11">
+        <v>963000</v>
+      </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A23" s="18"/>
-      <c r="B23" s="19"/>
+      <c r="A23" s="18">
+        <v>43867</v>
+      </c>
+      <c r="B23" s="19">
+        <v>382</v>
+      </c>
+      <c r="C23" s="11">
+        <f t="array" ref="C23">SUM(B19:B23*weight5d)/SUM(weight5d)</f>
+        <v>382.66666666666669</v>
+      </c>
+      <c r="D23" s="11">
+        <f t="array" ref="D23">SUM(B14:B23*weight10d)/SUM(weight10d)</f>
+        <v>393.61818181818182</v>
+      </c>
+      <c r="E23" s="11">
+        <v>0</v>
+      </c>
+      <c r="F23" s="11">
+        <v>0</v>
+      </c>
+      <c r="G23" s="11">
+        <v>0</v>
+      </c>
+      <c r="H23" s="11">
+        <v>963000</v>
+      </c>
+      <c r="I23" s="11">
+        <v>963000</v>
+      </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A24" s="18"/>
@@ -2285,7 +2339,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9689E08F-5937-485C-A36C-110B1AC7FF80}">
   <dimension ref="A1:L193"/>
   <sheetViews>
-    <sheetView topLeftCell="F13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="K18" sqref="K18:L20"/>
     </sheetView>
   </sheetViews>
@@ -2800,7 +2854,7 @@
         <v>13</v>
       </c>
       <c r="L20" s="17">
-        <v>152500</v>
+        <v>161500</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -3393,10 +3447,66 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A40" s="23"/>
+      <c r="A40" s="23">
+        <v>43867</v>
+      </c>
+      <c r="B40" s="24">
+        <v>332.5</v>
+      </c>
+      <c r="C40" s="11">
+        <f t="array" ref="C40">SUM(B36:B40*weight5d)/SUM(weight5d)</f>
+        <v>329.26666666666665</v>
+      </c>
+      <c r="D40" s="11">
+        <f t="array" ref="D40">SUM(B31:B40*weight10d)/SUM(weight10d)</f>
+        <v>320.37272727272727</v>
+      </c>
+      <c r="E40" s="11">
+        <v>0</v>
+      </c>
+      <c r="F40" s="11">
+        <v>0</v>
+      </c>
+      <c r="G40" s="11">
+        <v>3000</v>
+      </c>
+      <c r="H40" s="11">
+        <v>164000</v>
+      </c>
+      <c r="I40" s="11">
+        <v>1161500</v>
+      </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A41" s="23"/>
+      <c r="A41" s="23">
+        <v>43867</v>
+      </c>
+      <c r="B41" s="24">
+        <v>332.5</v>
+      </c>
+      <c r="C41" s="11">
+        <f t="array" ref="C41">SUM(B37:B41*weight5d)/SUM(weight5d)</f>
+        <v>331.33333333333331</v>
+      </c>
+      <c r="D41" s="11">
+        <f t="array" ref="D41">SUM(B32:B41*weight10d)/SUM(weight10d)</f>
+        <v>323.84545454545457</v>
+      </c>
+      <c r="E41" s="11">
+        <v>0</v>
+      </c>
+      <c r="F41" s="11">
+        <v>0</v>
+      </c>
+      <c r="G41" s="11">
+        <v>3000</v>
+      </c>
+      <c r="H41" s="11">
+        <v>164000</v>
+      </c>
+      <c r="I41" s="11">
+        <v>1161500</v>
+      </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A42" s="23"/>
@@ -3949,7 +4059,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80A9F817-2812-4B56-9BA3-D272858E35C1}">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
@@ -4440,7 +4550,7 @@
         <v>13</v>
       </c>
       <c r="L20" s="17">
-        <v>30850</v>
+        <v>31800</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -4722,9 +4832,72 @@
         <v>1030850</v>
       </c>
     </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A30" s="20">
+        <v>43867</v>
+      </c>
+      <c r="B30" s="11">
+        <v>29.1</v>
+      </c>
+      <c r="C30" s="11">
+        <f t="array" ref="C30">SUM(B26:B30*weight5d)/SUM(weight5d)</f>
+        <v>28.970000000000002</v>
+      </c>
+      <c r="D30" s="11">
+        <f t="array" ref="D30">SUM(B21:B30*weight10d)/SUM(weight10d)</f>
+        <v>28.550909090909091</v>
+      </c>
+      <c r="E30" s="11">
+        <v>1000</v>
+      </c>
+      <c r="F30" s="11">
+        <v>0</v>
+      </c>
+      <c r="G30" s="11">
+        <v>20000</v>
+      </c>
+      <c r="H30" s="11">
+        <v>449800</v>
+      </c>
+      <c r="I30" s="11">
+        <v>1031800</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A31" s="20">
+        <v>43867</v>
+      </c>
+      <c r="B31" s="11">
+        <v>29.1</v>
+      </c>
+      <c r="C31" s="11">
+        <f t="array" ref="C31">SUM(B27:B31*weight5d)/SUM(weight5d)</f>
+        <v>29.080000000000002</v>
+      </c>
+      <c r="D31" s="11">
+        <f t="array" ref="D31">SUM(B22:B31*weight10d)/SUM(weight10d)</f>
+        <v>28.704545454545453</v>
+      </c>
+      <c r="E31" s="11">
+        <v>1000</v>
+      </c>
+      <c r="F31" s="11">
+        <v>0</v>
+      </c>
+      <c r="G31" s="11">
+        <v>21000</v>
+      </c>
+      <c r="H31" s="11">
+        <v>420700</v>
+      </c>
+      <c r="I31" s="11">
+        <v>1031800</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4791,11 +4964,23 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A4" s="29">
+        <v>43867</v>
+      </c>
+      <c r="B4">
+        <v>83.6</v>
+      </c>
       <c r="K4">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A5" s="29">
+        <v>43867</v>
+      </c>
+      <c r="B5">
+        <v>83.6</v>
+      </c>
       <c r="K5">
         <v>4</v>
       </c>
@@ -4861,7 +5046,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34BD2E58-AB60-4665-96C7-C726E818E087}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -4909,11 +5094,23 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A3" s="29">
+        <v>43867</v>
+      </c>
+      <c r="B3">
+        <v>41.5</v>
+      </c>
       <c r="K3">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A4" s="29">
+        <v>43867</v>
+      </c>
+      <c r="B4">
+        <v>41.5</v>
+      </c>
       <c r="K4">
         <v>3</v>
       </c>
